--- a/biology/Botanique/Envoi_de_fleurs_à_domicile/Envoi_de_fleurs_à_domicile.xlsx
+++ b/biology/Botanique/Envoi_de_fleurs_à_domicile/Envoi_de_fleurs_à_domicile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Envoi_de_fleurs_%C3%A0_domicile</t>
+          <t>Envoi_de_fleurs_à_domicile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’envoi de fleur à domicile est un procédé de livraison proposé par les sites internet marchands des fleuristes qui sont exécutants floraux. Cette méthode est différente de la transmission florale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Envoi_de_fleurs_%C3%A0_domicile</t>
+          <t>Envoi_de_fleurs_à_domicile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cela consiste à ce que le fleuriste qui possède un site marchand de fleurs en ligne exécute lui-même la commande du client sans passer par un exécutant fleuriste tiers se situant non loin du lieu de livraison de la commande.
 Pour résumer, les entreprises d’envoi de fleurs font appel à des transporteurs  pour livrer des commandes qu’ils ont eux-mêmes réalisées.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Envoi_de_fleurs_%C3%A0_domicile</t>
+          <t>Envoi_de_fleurs_à_domicile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Les entreprises concernées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ainsi, la plupart des principales entreprises de vente de fleurs en ligne fonctionnent par un réseau de fleuristes et transmission florale. Cependant, certaines entreprises en ligne utilisent le principe de l’envoi de fleurs à domicile.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Envoi_de_fleurs_%C3%A0_domicile</t>
+          <t>Envoi_de_fleurs_à_domicile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Décision du conseil de la concurrence sur les acteurs de la transmission florale.
  Portail des entreprises   Portail de la botanique                    </t>
